--- a/results/UNEP-Gap-Report-2024-Chapter-2-Data-Global.xlsx
+++ b/results/UNEP-Gap-Report-2024-Chapter-2-Data-Global.xlsx
@@ -9,13 +9,12 @@
     <sheet name="table_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="total_by_gas" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="total_by_sector" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="shares_by_sector" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t xml:space="preserve">gas</t>
   </si>
@@ -35,31 +34,31 @@
     <t xml:space="preserve">GHG</t>
   </si>
   <si>
-    <t xml:space="preserve">53.3±5.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.2±5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6±5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.4±5.4</t>
+    <t xml:space="preserve">53.8±5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9±5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3±5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1±5.4</t>
   </si>
   <si>
     <t xml:space="preserve">CO2 Fossil</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6±2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3±3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4±3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3±3.1</t>
+    <t xml:space="preserve">36.3±2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1±3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2±3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39±3.1</t>
   </si>
   <si>
     <t xml:space="preserve">CO2 LULUCF (Bookkeeping)</t>
@@ -86,22 +85,22 @@
     <t xml:space="preserve">CH4</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1±2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5±2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7±2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9±3</t>
+    <t xml:space="preserve">9±2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4±2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6±2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8±2.9</t>
   </si>
   <si>
     <t xml:space="preserve">N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4±1.5</t>
+    <t xml:space="preserve">2.4±1.4</t>
   </si>
   <si>
     <t xml:space="preserve">2.5±1.5</t>
@@ -110,9 +109,6 @@
     <t xml:space="preserve">2.6±1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6±1.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">F-gases</t>
   </si>
   <si>
@@ -227,9 +223,6 @@
     <t xml:space="preserve">change_2022_2023_rel</t>
   </si>
   <si>
-    <t xml:space="preserve">CO2 Fossil (excl. cement carbonation)</t>
-  </si>
-  <si>
     <t xml:space="preserve">sector_lv1</t>
   </si>
   <si>
@@ -317,9 +310,6 @@
     <t xml:space="preserve">LULUCF</t>
   </si>
   <si>
-    <t xml:space="preserve">Fires</t>
-  </si>
-  <si>
     <t xml:space="preserve">Waste &amp; Other</t>
   </si>
   <si>
@@ -330,114 +320,6 @@
   </si>
   <si>
     <t xml:space="preserve">Other (Indirect N2O and fossil fuel fires)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy: Power
- (27%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy: Industry
- (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy: Transport
- (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy: Buildings
- (6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy: Fuel production
- (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrial processes
- (8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFOLU: Agriculture
- (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFOLU: LULUCF
- (7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste &amp; Other
- (4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power (27%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aviation (2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (Transport) (2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buildings (6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil and gas (3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solid fuels (4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (Fuel production) (3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cement (incl. carbonation) (1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemicals (2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metals (1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (Industrial processes) (4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livestock (6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass burning, soils and rice (5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULUCF (7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fires (0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solid waste (2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liquid waste (1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (Indirect N2O and fossil fuel fires) (0%)</t>
   </si>
 </sst>
 </file>
@@ -888,27 +770,27 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -930,97 +812,97 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>55</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>56</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>57</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>66</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>67</v>
       </c>
       <c r="AG1" t="s">
         <v>2</v>
@@ -1032,10 +914,10 @@
         <v>4</v>
       </c>
       <c r="AJ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" t="s">
         <v>68</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2">
@@ -1043,112 +925,112 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>37.6154187660382</v>
+        <v>37.8212139837996</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>37.4413387672661</v>
+        <v>37.6596060119284</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>37.6284111378043</v>
+        <v>37.8494938777824</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>37.5843178955047</v>
+        <v>37.8204604906746</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>38.5722177197231</v>
+        <v>38.8210927967592</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>39.2510184852754</v>
+        <v>39.5132170696072</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>40.2363938526535</v>
+        <v>40.5085104566911</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>42.9675539539832</v>
+        <v>42.4059893646054</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>41.1180941666559</v>
+        <v>41.1862730962051</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>41.1055171564076</v>
+        <v>41.2558957551156</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>41.2949634579226</v>
+        <v>41.5130715630454</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>41.2169100605524</v>
+        <v>41.4590875307493</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>42.1708142909077</v>
+        <v>42.2599058442527</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>43.9869018107979</v>
+        <v>44.2123058676366</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>45.1958122842241</v>
+        <v>45.356118560911</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>45.974476769738</v>
+        <v>46.172519986453</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>47.5803942697195</v>
+        <v>47.6866406867107</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>47.9907234595393</v>
+        <v>48.2859823813614</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>48.3175915641958</v>
+        <v>48.7428366508222</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>48.5028729461182</v>
+        <v>48.823829694724</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>50.6100062691667</v>
+        <v>50.9799468068413</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>51.9003477447482</v>
+        <v>52.3811753907195</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>52.6433662575189</v>
+        <v>53.1281407529983</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>52.906541438172</v>
+        <v>53.4503379227875</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>53.711388122081</v>
+        <v>54.1577225288194</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>54.1587207754376</v>
+        <v>54.4482738221098</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>53.1051976559396</v>
+        <v>53.6758294840195</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>53.8520769087125</v>
+        <v>54.4670391679384</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>54.7039085848179</v>
+        <v>55.3370948692464</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>55.4007137666324</v>
+        <v>55.9064881522071</v>
       </c>
       <c r="AF2" s="1" t="n">
-        <v>53.029364482356</v>
+        <v>53.6744158643192</v>
       </c>
       <c r="AG2" s="1" t="n">
-        <v>55.2404007210735</v>
+        <v>55.9442405776883</v>
       </c>
       <c r="AH2" s="1" t="n">
-        <v>55.6266228752207</v>
+        <v>56.3330331290469</v>
       </c>
       <c r="AI2" s="1" t="n">
-        <v>56.4115208098419</v>
+        <v>57.0516088098419</v>
       </c>
       <c r="AJ2" s="1" t="n">
-        <v>0.784897934621199</v>
+        <v>0.718575680795006</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>0.0141101130007811</v>
+        <v>0.0127558492927037</v>
       </c>
     </row>
     <row r="3">
@@ -1156,112 +1038,112 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>22.4746124281072</v>
+        <v>22.6804076458686</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>22.5912690529742</v>
+        <v>22.8095362976365</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>22.4886610782597</v>
+        <v>22.7097438182378</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>22.5667469413882</v>
+        <v>22.8028895365581</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>22.7844131853923</v>
+        <v>23.0332882624284</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>23.4171571011679</v>
+        <v>23.6793556854997</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>23.8733449826573</v>
+        <v>24.1454615866949</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>24.3158960912425</v>
+        <v>24.5981655018646</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>24.4712475952645</v>
+        <v>24.7563205248137</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>24.6444040997935</v>
+        <v>24.9396166985015</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>25.4191463716778</v>
+        <v>25.7254484768006</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>25.7154400877612</v>
+        <v>26.031174557958</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>26.1013838859897</v>
+        <v>26.4333014393347</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>27.3001576459881</v>
+        <v>27.6568327028268</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>28.5671870463193</v>
+        <v>28.9487583230062</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>29.6369651003301</v>
+        <v>30.0445553170451</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>30.6213737463669</v>
+        <v>31.0651081633581</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>31.7545145069676</v>
+        <v>32.2325304287898</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>31.9375153765673</v>
+        <v>32.4312714631938</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>31.501819180022</v>
+        <v>32.0206979286279</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>33.4526472296941</v>
+        <v>34.0036707673687</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>34.4629530823896</v>
+        <v>35.059589728361</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>34.9011835382372</v>
+        <v>35.5217290337166</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>35.5713193484063</v>
+        <v>36.2211598330219</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>35.7497065419287</v>
+        <v>36.4277909486671</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>35.6187146026432</v>
+        <v>36.3004906493154</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>35.7343277457591</v>
+        <v>36.423675573839</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>36.3432184503326</v>
+        <v>37.0474847095586</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>37.2478509083234</v>
+        <v>37.974568192752</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>37.3273121418464</v>
+        <v>38.0664505274212</v>
       </c>
       <c r="AF3" s="1" t="n">
-        <v>35.3958431221708</v>
+        <v>36.154321504134</v>
       </c>
       <c r="AG3" s="1" t="n">
-        <v>37.327333929765</v>
+        <v>38.1210297863798</v>
       </c>
       <c r="AH3" s="1" t="n">
-        <v>37.4492686875219</v>
+        <v>38.2466389413481</v>
       </c>
       <c r="AI3" s="1" t="n">
-        <v>38.2539527073468</v>
+        <v>39.0239527073468</v>
       </c>
       <c r="AJ3" s="1" t="n">
-        <v>0.804684019824961</v>
+        <v>0.77731376599877</v>
       </c>
       <c r="AK3" s="2" t="n">
-        <v>0.0214873093127472</v>
+        <v>0.0203237143841788</v>
       </c>
     </row>
     <row r="4">
@@ -1403,91 +1285,91 @@
         <v>7.72747157973402</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>8.41319190230397</v>
+        <v>7.69002390230397</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>7.74981960754297</v>
+        <v>7.59134760754297</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>7.70609584020633</v>
+        <v>7.59784384020633</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>7.7337854359505</v>
+        <v>7.6696154359505</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>7.71071716964298</v>
+        <v>7.65435916964298</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>7.81505323215961</v>
+        <v>7.61863723215961</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>7.93272315335789</v>
+        <v>7.83312015335789</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>8.15825857337279</v>
+        <v>7.98695257337279</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>8.28648874189876</v>
+        <v>8.12690074189877</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>8.55010013174378</v>
+        <v>8.26803113174378</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>8.46437648832728</v>
+        <v>8.33185148832728</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>8.5027336518986</v>
+        <v>8.4525136518986</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>8.59054795056677</v>
+        <v>8.42565895056677</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>8.6924175616957</v>
+        <v>8.5615665616957</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>8.84785989881316</v>
+        <v>8.75634789881316</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>8.94047656742562</v>
+        <v>8.83473556742562</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>8.94088933728635</v>
+        <v>8.85914233728635</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>9.11557113080082</v>
+        <v>8.92640913080082</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>9.27953933524737</v>
+        <v>8.95310933524737</v>
       </c>
       <c r="AB5" s="1" t="n">
-        <v>9.09474381374825</v>
+        <v>9.00769581374825</v>
       </c>
       <c r="AC5" s="1" t="n">
-        <v>9.19571240672816</v>
+        <v>9.13070540672816</v>
       </c>
       <c r="AD5" s="1" t="n">
-        <v>9.34305272544595</v>
+        <v>9.27190772544595</v>
       </c>
       <c r="AE5" s="1" t="n">
-        <v>9.53537307738196</v>
+        <v>9.34732707738196</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>9.34694117396502</v>
+        <v>9.26463617396502</v>
       </c>
       <c r="AG5" s="1" t="n">
-        <v>9.50670595480697</v>
+        <v>9.44141995480697</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>9.69237615041217</v>
+        <v>9.62653215041217</v>
       </c>
       <c r="AI5" s="1" t="n">
-        <v>9.85311242965382</v>
+        <v>9.75323042965382</v>
       </c>
       <c r="AJ5" s="1" t="n">
-        <v>0.160736279241654</v>
+        <v>0.126698279241653</v>
       </c>
       <c r="AK5" s="2" t="n">
-        <v>0.0165837846929639</v>
+        <v>0.013161362499187</v>
       </c>
     </row>
     <row r="6">
@@ -1516,96 +1398,96 @@
         <v>2.07777627437696</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>2.16230317964683</v>
+        <v>2.04163717964683</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>2.11214605088016</v>
+        <v>2.05372405088016</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>2.10993705429181</v>
+        <v>2.07335505429181</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>2.08849446678874</v>
+        <v>2.06447046678874</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>2.07274068528487</v>
+        <v>2.05554168528487</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>2.11167359563469</v>
+        <v>2.06526359563469</v>
       </c>
       <c r="O6" s="1" t="n">
-        <v>2.13254070625941</v>
+        <v>2.10087270625941</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>2.20828365692428</v>
+        <v>2.15832465692428</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>2.23304750760135</v>
+        <v>2.18308850760135</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>2.27840495428163</v>
+        <v>2.22298595428163</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>2.31777484094552</v>
+        <v>2.26754284094552</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>2.26108340940106</v>
+        <v>2.24279240940106</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>2.27530512671005</v>
+        <v>2.24227212671005</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>2.32656167688562</v>
+        <v>2.27632967688562</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>2.35629836123112</v>
+        <v>2.33200136123111</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>2.37916825335137</v>
+        <v>2.34913825335137</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>2.40755855478263</v>
+        <v>2.38326155478263</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>2.42452394583423</v>
+        <v>2.38193594583423</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>2.46450655867394</v>
+        <v>2.39871355867394</v>
       </c>
       <c r="AB6" s="1" t="n">
-        <v>2.45537127736285</v>
+        <v>2.42370327736285</v>
       </c>
       <c r="AC6" s="1" t="n">
-        <v>2.45807033515394</v>
+        <v>2.43377333515394</v>
       </c>
       <c r="AD6" s="1" t="n">
-        <v>2.46961051399538</v>
+        <v>2.44722451399537</v>
       </c>
       <c r="AE6" s="1" t="n">
-        <v>2.52514948042056</v>
+        <v>2.47983148042056</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>2.51571214654713</v>
+        <v>2.48459014654713</v>
       </c>
       <c r="AG6" s="1" t="n">
-        <v>2.53900948650491</v>
+        <v>2.51443948650491</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>2.55998550917785</v>
+        <v>2.53486950917785</v>
       </c>
       <c r="AI6" s="1" t="n">
-        <v>2.59206296978425</v>
+        <v>2.56203296978425</v>
       </c>
       <c r="AJ6" s="1" t="n">
-        <v>0.0320774606063976</v>
+        <v>0.0271634606063977</v>
       </c>
       <c r="AK6" s="2" t="n">
-        <v>0.0125303289770181</v>
+        <v>0.0107159206846935</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.412475912361785</v>
@@ -1860,119 +1742,6 @@
       <c r="AJ9" s="1"/>
       <c r="AK9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>22.6804076458686</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>22.8095362976365</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>22.7097438182378</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>22.8028895365581</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>23.0332882624284</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>23.6793556854997</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>24.1454615866949</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>24.5981655018646</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>24.7563205248137</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>24.9396166985015</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>25.7254484768006</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>26.031174557958</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>26.4333014393347</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>27.6568327028268</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <v>28.9487583230062</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <v>30.0445553170451</v>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>31.0651081633582</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>32.2325304287898</v>
-      </c>
-      <c r="T10" s="1" t="n">
-        <v>32.4312714631938</v>
-      </c>
-      <c r="U10" s="1" t="n">
-        <v>32.0206979286279</v>
-      </c>
-      <c r="V10" s="1" t="n">
-        <v>34.0036707673687</v>
-      </c>
-      <c r="W10" s="1" t="n">
-        <v>35.059589728361</v>
-      </c>
-      <c r="X10" s="1" t="n">
-        <v>35.5217290337166</v>
-      </c>
-      <c r="Y10" s="1" t="n">
-        <v>36.2211598330218</v>
-      </c>
-      <c r="Z10" s="1" t="n">
-        <v>36.4277909486671</v>
-      </c>
-      <c r="AA10" s="1" t="n">
-        <v>36.3004906493154</v>
-      </c>
-      <c r="AB10" s="1" t="n">
-        <v>36.423675573839</v>
-      </c>
-      <c r="AC10" s="1" t="n">
-        <v>37.0474847095586</v>
-      </c>
-      <c r="AD10" s="1" t="n">
-        <v>37.974568192752</v>
-      </c>
-      <c r="AE10" s="1" t="n">
-        <v>38.0664505274211</v>
-      </c>
-      <c r="AF10" s="1" t="n">
-        <v>36.154321504134</v>
-      </c>
-      <c r="AG10" s="1" t="n">
-        <v>38.1210297863798</v>
-      </c>
-      <c r="AH10" s="1" t="n">
-        <v>38.2466389413481</v>
-      </c>
-      <c r="AI10" s="1" t="n">
-        <v>39.0239527073468</v>
-      </c>
-      <c r="AJ10" s="1" t="n">
-        <v>0.777313765998784</v>
-      </c>
-      <c r="AK10" s="2" t="n">
-        <v>0.0203237143841792</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1989,106 +1758,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
       <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>54</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>61</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>62</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>66</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>67</v>
       </c>
       <c r="AI1" t="s">
         <v>2</v>
@@ -2100,21 +1869,21 @@
         <v>4</v>
       </c>
       <c r="AL1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" t="s">
         <v>68</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>7.68747183691187</v>
@@ -2227,13 +1996,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>3.98285851254583</v>
@@ -2346,13 +2115,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0.547900123233958</v>
@@ -2465,13 +2234,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>3.39396619919941</v>
@@ -2584,13 +2353,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0.765655663529598</v>
@@ -2703,13 +2472,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>3.36739063246839</v>
@@ -2822,13 +2591,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1.58009942449049</v>
@@ -2941,13 +2710,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
         <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>1.17816422245218</v>
@@ -3060,13 +2829,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1.33484642005878</v>
@@ -3179,132 +2948,132 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.291210233454159</v>
+        <v>0.497005451215505</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.28494333050083</v>
+        <v>0.503210575163156</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.302494377475986</v>
+        <v>0.523577117454055</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.313505329823752</v>
+        <v>0.549647924993703</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.338700837107293</v>
+        <v>0.587575914143389</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.358597374965914</v>
+        <v>0.620795959297706</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.358050500551893</v>
+        <v>0.63016710458954</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.369404660793533</v>
+        <v>0.651674071415693</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>0.356062857657753</v>
+        <v>0.641135787206962</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.373238346837624</v>
+        <v>0.668450945545639</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>0.388389397618624</v>
+        <v>0.694691502741358</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>0.411247723634914</v>
+        <v>0.726982193831801</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>0.444043728043107</v>
+        <v>0.77596128138813</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>0.469234326677606</v>
+        <v>0.82590938351629</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0.493596638951561</v>
+        <v>0.875167915638531</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0.546412231725544</v>
+        <v>0.954002448440512</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.596928655272277</v>
+        <v>1.04066307226352</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.640763390547112</v>
+        <v>1.11877931236925</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.633524666661517</v>
+        <v>1.12728075328795</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.625637848762185</v>
+        <v>1.144516597368</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.667222034540583</v>
+        <v>1.21824557221519</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>0.700215254025421</v>
+        <v>1.29685189999678</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>0.719572906437405</v>
+        <v>1.3401184019168</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.722433707928327</v>
+        <v>1.37227419254384</v>
       </c>
       <c r="AB11" s="1" t="n">
-        <v>0.71437225263071</v>
+        <v>1.39245665936912</v>
       </c>
       <c r="AC11" s="1" t="n">
-        <v>0.686306721266712</v>
+        <v>1.36808276793886</v>
       </c>
       <c r="AD11" s="1" t="n">
-        <v>0.735884926587613</v>
+        <v>1.42523275466752</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>0.753678853061305</v>
+        <v>1.45794511228724</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>0.763283328443925</v>
+        <v>1.49000061287248</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>0.796539476455977</v>
+        <v>1.53567786203069</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>0.803232373497596</v>
+        <v>1.56171075546081</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>0.814559164121578</v>
+        <v>1.60825502073639</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>0.72923927031899</v>
+        <v>1.52660952414517</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>0.732760159293123</v>
+        <v>1.50276015929312</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>0.00352088897413261</v>
+        <v>-0.0238493648520501</v>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>0.00482816699187424</v>
+        <v>-0.0156224394482306</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
         <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0.67357876477982</v>
@@ -3417,13 +3186,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>0.280715655435055</v>
@@ -3536,13 +3305,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0.47607351635137</v>
@@ -3655,13 +3424,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
         <v>94</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2.93923279929633</v>
@@ -3774,13 +3543,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
         <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>2.45635492828413</v>
@@ -3893,13 +3662,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>5.17065036888889</v>
@@ -4012,898 +3781,359 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
         <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0.79550421945114</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.813429611850543</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0.826271082755106</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0.838149962487246</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0.848568095620642</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0.855817151469743</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0.86724589573923</v>
+      </c>
       <c r="K18" s="1" t="n">
-        <v>0.843834</v>
+        <v>0.872224067729551</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>0.216894</v>
+        <v>0.869584809014724</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>0.144834</v>
+        <v>0.873809733337546</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>0.088194</v>
+        <v>0.884851801806625</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>0.073557</v>
+        <v>0.870374401423243</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>0.242826</v>
+        <v>0.866466522581544</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>0.131271</v>
+        <v>0.879415474181703</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0.221265</v>
+        <v>0.881709501192579</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0.209547</v>
+        <v>0.88643164482024</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>0.337488</v>
+        <v>0.910365307940183</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>0.182757</v>
+        <v>0.918176966823868</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.068511</v>
+        <v>0.915728753684519</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>0.197922</v>
+        <v>0.92068183466955</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.181083</v>
+        <v>0.920244428088173</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.115809</v>
+        <v>0.937277838906725</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>0.135771</v>
+        <v>0.943469854802431</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.106044</v>
+        <v>0.963497840880099</v>
       </c>
       <c r="AB18" s="1" t="n">
-        <v>0.23175</v>
+        <v>0.974995756577567</v>
       </c>
       <c r="AC18" s="1" t="n">
-        <v>0.392223</v>
+        <v>0.997761389653079</v>
       </c>
       <c r="AD18" s="1" t="n">
-        <v>0.118716</v>
+        <v>1.01804944720672</v>
       </c>
       <c r="AE18" s="1" t="n">
-        <v>0.089304</v>
+        <v>1.04386000228346</v>
       </c>
       <c r="AF18" s="1" t="n">
-        <v>0.093531</v>
+        <v>1.07014453115661</v>
       </c>
       <c r="AG18" s="1" t="n">
-        <v>0.233364</v>
+        <v>1.09345821591597</v>
       </c>
       <c r="AH18" s="1" t="n">
-        <v>0.113427</v>
+        <v>1.10930541615837</v>
       </c>
       <c r="AI18" s="1" t="n">
-        <v>0.089856</v>
+        <v>1.12969862308117</v>
       </c>
       <c r="AJ18" s="1" t="n">
-        <v>0.09096</v>
+        <v>1.15215224510148</v>
       </c>
       <c r="AK18" s="1" t="n">
-        <v>0.129912</v>
+        <v>1.17469205102229</v>
       </c>
       <c r="AL18" s="1" t="n">
-        <v>0.038952</v>
+        <v>0.0225398059208042</v>
       </c>
       <c r="AM18" s="2" t="n">
-        <v>0.428232189973615</v>
+        <v>0.0195632183304203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.79550421945114</v>
+        <v>0.475113534889565</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.813429611850543</v>
+        <v>0.474901288961753</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0.826271082755106</v>
+        <v>0.478564352234494</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>0.838149962487246</v>
+        <v>0.476199238678669</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>0.848568095620642</v>
+        <v>0.480632381641193</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>0.855817151469743</v>
+        <v>0.487545262441476</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>0.86724589573923</v>
+        <v>0.487456824505157</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>0.872224067729551</v>
+        <v>0.491834439994256</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>0.869584809014724</v>
+        <v>0.497178482272547</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>0.873809733337546</v>
+        <v>0.502046124364169</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>0.884851801806625</v>
+        <v>0.505514768578186</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>0.870374401423243</v>
+        <v>0.511380866153774</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>0.866466522581544</v>
+        <v>0.522389143188657</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>0.879415474181703</v>
+        <v>0.532460585827033</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0.881709501192579</v>
+        <v>0.54760452510983</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0.88643164482024</v>
+        <v>0.557259738171336</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>0.910365307940183</v>
+        <v>0.569407734054115</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.918176966823868</v>
+        <v>0.589847465921967</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.915728753684519</v>
+        <v>0.601348215977644</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.92068183466955</v>
+        <v>0.604598964250278</v>
       </c>
       <c r="X19" s="1" t="n">
-        <v>0.920244428088173</v>
+        <v>0.626787024201136</v>
       </c>
       <c r="Y19" s="1" t="n">
-        <v>0.937277838906725</v>
+        <v>0.64249254699529</v>
       </c>
       <c r="Z19" s="1" t="n">
-        <v>0.943469854802431</v>
+        <v>0.65109410269459</v>
       </c>
       <c r="AA19" s="1" t="n">
-        <v>0.963497840880099</v>
+        <v>0.666230425377241</v>
       </c>
       <c r="AB19" s="1" t="n">
-        <v>0.974995756577567</v>
+        <v>0.681391171895092</v>
       </c>
       <c r="AC19" s="1" t="n">
-        <v>0.997761389653079</v>
+        <v>0.696725583282559</v>
       </c>
       <c r="AD19" s="1" t="n">
-        <v>1.01804944720672</v>
+        <v>0.709776345246504</v>
       </c>
       <c r="AE19" s="1" t="n">
-        <v>1.04386000228346</v>
+        <v>0.721495014206325</v>
       </c>
       <c r="AF19" s="1" t="n">
-        <v>1.07014453115661</v>
+        <v>0.738378069512855</v>
       </c>
       <c r="AG19" s="1" t="n">
-        <v>1.09345821591597</v>
+        <v>0.746745066370343</v>
       </c>
       <c r="AH19" s="1" t="n">
-        <v>1.10930541615837</v>
+        <v>0.759959887735821</v>
       </c>
       <c r="AI19" s="1" t="n">
-        <v>1.12969862308117</v>
+        <v>0.779345031310786</v>
       </c>
       <c r="AJ19" s="1" t="n">
-        <v>1.15215224510148</v>
+        <v>0.789448310823777</v>
       </c>
       <c r="AK19" s="1" t="n">
-        <v>1.17469205102229</v>
+        <v>0.801920213880511</v>
       </c>
       <c r="AL19" s="1" t="n">
-        <v>0.0225398059208042</v>
+        <v>0.0124719030567334</v>
       </c>
       <c r="AM19" s="2" t="n">
-        <v>0.0195632183304203</v>
+        <v>0.0157982516217169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
         <v>101</v>
       </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" t="s">
-        <v>103</v>
-      </c>
       <c r="D20" s="1" t="n">
-        <v>0.475113534889565</v>
+        <v>0.218631710317275</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.474901288961753</v>
+        <v>0.247549438490126</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.478564352234494</v>
+        <v>0.221744340563238</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.476199238678669</v>
+        <v>0.222992458930759</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.480632381641193</v>
+        <v>0.22060813549463</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.487545262441476</v>
+        <v>0.222461982691457</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.487456824505157</v>
+        <v>0.226164089778182</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>0.491834439994256</v>
+        <v>0.213300320167625</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>0.497178482272547</v>
+        <v>0.225105182550543</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.502046124364169</v>
+        <v>0.223612001152257</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>0.505514768578186</v>
+        <v>0.230308153601167</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>0.511380866153774</v>
+        <v>0.221042336177524</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>0.522389143188657</v>
+        <v>0.217164789683066</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>0.532460585827033</v>
+        <v>0.221900965059483</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0.54760452510983</v>
+        <v>0.228118170488823</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0.557259738171336</v>
+        <v>0.229416996055262</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>0.569407734054115</v>
+        <v>0.230610274989498</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>0.589847465921967</v>
+        <v>0.235941852237114</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.601348215977644</v>
+        <v>0.231488323020375</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.604598964250278</v>
+        <v>0.227385182856523</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.626787024201136</v>
+        <v>0.235653302472955</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.64249254699529</v>
+        <v>0.234918691594628</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>0.65109410269459</v>
+        <v>0.234806653234133</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.666230425377241</v>
+        <v>0.230550063559931</v>
       </c>
       <c r="AB20" s="1" t="n">
-        <v>0.681391171895092</v>
+        <v>0.230956054706153</v>
       </c>
       <c r="AC20" s="1" t="n">
-        <v>0.696725583282559</v>
+        <v>0.229673508136694</v>
       </c>
       <c r="AD20" s="1" t="n">
-        <v>0.709776345246504</v>
+        <v>0.226492781972371</v>
       </c>
       <c r="AE20" s="1" t="n">
-        <v>0.721495014206325</v>
+        <v>0.226213641637025</v>
       </c>
       <c r="AF20" s="1" t="n">
-        <v>0.738378069512855</v>
+        <v>0.227748374723958</v>
       </c>
       <c r="AG20" s="1" t="n">
-        <v>0.746745066370343</v>
+        <v>0.228537038148672</v>
       </c>
       <c r="AH20" s="1" t="n">
-        <v>0.759959887735821</v>
+        <v>0.216780117041186</v>
       </c>
       <c r="AI20" s="1" t="n">
-        <v>0.779345031310786</v>
+        <v>0.221494853888281</v>
       </c>
       <c r="AJ20" s="1" t="n">
-        <v>0.789448310823777</v>
+        <v>0.223581780690901</v>
       </c>
       <c r="AK20" s="1" t="n">
-        <v>0.801920213880511</v>
+        <v>0.228800109514975</v>
       </c>
       <c r="AL20" s="1" t="n">
-        <v>0.0124719030567334</v>
+        <v>0.00521832882407322</v>
       </c>
       <c r="AM20" s="2" t="n">
-        <v>0.0157982516217169</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>0.218631710317275</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>0.247549438490126</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>0.221744340563238</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>0.222992458930759</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>0.22060813549463</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>0.222461982691457</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>0.226164089778182</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>0.213300320167625</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>0.225105182550543</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>0.223612001152257</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>0.230308153601167</v>
-      </c>
-      <c r="O21" s="1" t="n">
-        <v>0.221042336177524</v>
-      </c>
-      <c r="P21" s="1" t="n">
-        <v>0.217164789683066</v>
-      </c>
-      <c r="Q21" s="1" t="n">
-        <v>0.221900965059483</v>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>0.228118170488823</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>0.229416996055262</v>
-      </c>
-      <c r="T21" s="1" t="n">
-        <v>0.230610274989498</v>
-      </c>
-      <c r="U21" s="1" t="n">
-        <v>0.235941852237114</v>
-      </c>
-      <c r="V21" s="1" t="n">
-        <v>0.231488323020375</v>
-      </c>
-      <c r="W21" s="1" t="n">
-        <v>0.227385182856523</v>
-      </c>
-      <c r="X21" s="1" t="n">
-        <v>0.235653302472955</v>
-      </c>
-      <c r="Y21" s="1" t="n">
-        <v>0.234918691594628</v>
-      </c>
-      <c r="Z21" s="1" t="n">
-        <v>0.234806653234133</v>
-      </c>
-      <c r="AA21" s="1" t="n">
-        <v>0.230550063559931</v>
-      </c>
-      <c r="AB21" s="1" t="n">
-        <v>0.230956054706153</v>
-      </c>
-      <c r="AC21" s="1" t="n">
-        <v>0.229673508136694</v>
-      </c>
-      <c r="AD21" s="1" t="n">
-        <v>0.226492781972371</v>
-      </c>
-      <c r="AE21" s="1" t="n">
-        <v>0.226213641637025</v>
-      </c>
-      <c r="AF21" s="1" t="n">
-        <v>0.227748374723958</v>
-      </c>
-      <c r="AG21" s="1" t="n">
-        <v>0.228537038148672</v>
-      </c>
-      <c r="AH21" s="1" t="n">
-        <v>0.216780117041186</v>
-      </c>
-      <c r="AI21" s="1" t="n">
-        <v>0.221494853888281</v>
-      </c>
-      <c r="AJ21" s="1" t="n">
-        <v>0.223581780690901</v>
-      </c>
-      <c r="AK21" s="1" t="n">
-        <v>0.228800109514975</v>
-      </c>
-      <c r="AL21" s="1" t="n">
-        <v>0.00521832882407322</v>
-      </c>
-      <c r="AM21" s="2" t="n">
         <v>0.0233396871961025</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>15.0761907633957</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>6.45275307557198</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>8.38570349095884</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>3.58170543040395</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>5.75964956890088</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>4.28070240843497</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>6.50615836442449</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>4.16324533333333</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>2.20541237441777</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>15.0761907633957</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>6.45275307557198</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0.903004426780454</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>6.2771201005838</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>1.20557896359459</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>3.58170543040395</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>1.97147854608233</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>2.01529268801088</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>1.77287833480767</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>0.732760159293123</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>1.0215513274458</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>0.467356396425999</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>2.05903452527005</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>3.59122737045571</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>2.91493099396878</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>4.03333333333333</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>0.129912</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>1.17469205102229</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>0.801920213880511</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>0.228800109514975</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/UNEP-Gap-Report-2024-Chapter-2-Data-Global.xlsx
+++ b/results/UNEP-Gap-Report-2024-Chapter-2-Data-Global.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="1" r:id="rId1"/>
     <sheet name="total_by_gas" sheetId="2" r:id="rId2"/>
     <sheet name="total_by_sector" sheetId="3" r:id="rId3"/>
-    <sheet name="shares_by_sector" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="102">
   <si>
     <t>gas</t>
   </si>
@@ -288,7 +287,7 @@
     <t>Industrial processes</t>
   </si>
   <si>
-    <t>Cement (incl. carbonation)</t>
+    <t>Cement (excl. carbonation)</t>
   </si>
   <si>
     <t>Chemicals</t>
@@ -328,111 +327,6 @@
   </si>
   <si>
     <t>Other (Indirect N2O and fossil fuel fires)</t>
-  </si>
-  <si>
-    <t>column</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>value (GtCO2e/year in 2023)</t>
-  </si>
-  <si>
-    <t>share (% of total)</t>
-  </si>
-  <si>
-    <t>Energy: Power
- (26%)</t>
-  </si>
-  <si>
-    <t>Energy: Industry
- (11%)</t>
-  </si>
-  <si>
-    <t>Energy: Transport
- (15%)</t>
-  </si>
-  <si>
-    <t>Energy: Buildings
- (6%)</t>
-  </si>
-  <si>
-    <t>Energy: Fuel production
- (10%)</t>
-  </si>
-  <si>
-    <t>Industrial processes
- (9%)</t>
-  </si>
-  <si>
-    <t>AFOLU: Agriculture
- (11%)</t>
-  </si>
-  <si>
-    <t>AFOLU: LULUCF
- (7%)</t>
-  </si>
-  <si>
-    <t>Waste &amp; Other
- (4%)</t>
-  </si>
-  <si>
-    <t>Power (26%)</t>
-  </si>
-  <si>
-    <t>Industry (11%)</t>
-  </si>
-  <si>
-    <t>Aviation (2%)</t>
-  </si>
-  <si>
-    <t>Road (11%)</t>
-  </si>
-  <si>
-    <t>Other (Transport) (2%)</t>
-  </si>
-  <si>
-    <t>Buildings (6%)</t>
-  </si>
-  <si>
-    <t>Oil and gas (3%)</t>
-  </si>
-  <si>
-    <t>Solid fuels (4%)</t>
-  </si>
-  <si>
-    <t>Other (Fuel production) (3%)</t>
-  </si>
-  <si>
-    <t>Cement (incl. carbonation) (3%)</t>
-  </si>
-  <si>
-    <t>Chemicals (2%)</t>
-  </si>
-  <si>
-    <t>Metals (1%)</t>
-  </si>
-  <si>
-    <t>Other (Industrial processes) (4%)</t>
-  </si>
-  <si>
-    <t>Livestock (6%)</t>
-  </si>
-  <si>
-    <t>Biomass burning, soils and rice (5%)</t>
-  </si>
-  <si>
-    <t>LULUCF (7%)</t>
-  </si>
-  <si>
-    <t>Solid waste (2%)</t>
-  </si>
-  <si>
-    <t>Liquid waste (1%)</t>
-  </si>
-  <si>
-    <t>Other (Indirect N2O and fossil fuel fires) (0%)</t>
   </si>
 </sst>
 </file>
@@ -442,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -454,6 +348,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,16 +374,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -921,13 +825,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1153,7 +1059,7 @@
         <v>1.2755849292703699E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1265,8 +1171,10 @@
       <c r="AK3" s="2">
         <v>2.03237143841788E-2</v>
       </c>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="4"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1379,7 +1287,7 @@
         <v>-6.4861071708544396E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1492,7 +1400,7 @@
         <v>1.3161362499187E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1605,7 +1513,7 @@
         <v>1.07159206846935E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1718,7 +1626,7 @@
         <v>4.1659617095147199E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1756,7 +1664,7 @@
       <c r="AJ8" s="1"/>
       <c r="AK8" s="2"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1871,9 +1779,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AM4" sqref="AM4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4259,489 +4177,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="1">
-        <v>15.076190763395701</v>
-      </c>
-      <c r="D2" s="1">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6.4527530755719802</v>
-      </c>
-      <c r="D3" s="1">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8.3857034909588393</v>
-      </c>
-      <c r="D4" s="1">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.5817054304039502</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5.7596495689008798</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5.0507024084349696</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6.5061583644244898</v>
-      </c>
-      <c r="D8" s="1">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.0333333333333297</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.20541237441777</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="1">
-        <v>15.076190763395701</v>
-      </c>
-      <c r="D11" s="1">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6.4527530755719802</v>
-      </c>
-      <c r="D12" s="1">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.90300442678045401</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6.2771201005838</v>
-      </c>
-      <c r="D14" s="1">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.2055789635945899</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3.5817054304039502</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.9714785460823301</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.0152926880108799</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.77287833480767</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.5027601592931199</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.0215513274457999</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.46735639642599902</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.0590345252700502</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3.5912273704557101</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2.9149309939687802</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4.0333333333333297</v>
-      </c>
-      <c r="D26" s="1">
-        <v>7</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1.17469205102229</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.80192021388051105</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.22880010951497501</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>